--- a/cmip6/models/mpi-esm-1-2-lr/cmip6_mpi-m_mpi-esm-1-2-lr_landice.xlsx
+++ b/cmip6/models/mpi-esm-1-2-lr/cmip6_mpi-m_mpi-esm-1-2-lr_landice.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="149">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -39,6 +39,21 @@
   </si>
   <si>
     <t>Land Ice</t>
+  </si>
+  <si>
+    <t>Sub-Topics</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Glaciers</t>
+  </si>
+  <si>
+    <t>4. Ice</t>
   </si>
   <si>
     <t>Specialization Version</t>
@@ -573,17 +588,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -901,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ZZ111"/>
+  <dimension ref="A1:ZZ116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -950,10 +972,12 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -963,11 +987,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1"/>
-    <row r="13" spans="1:2" s="2" customFormat="1"/>
-    <row r="14" spans="1:2" s="2" customFormat="1"/>
-    <row r="15" spans="1:2" s="2" customFormat="1"/>
-    <row r="16" spans="1:2" s="2" customFormat="1"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="17" s="2" customFormat="1"/>
     <row r="18" s="2" customFormat="1"/>
     <row r="19" s="2" customFormat="1"/>
@@ -1063,10 +1103,15 @@
     <row r="109" s="2" customFormat="1"/>
     <row r="110" s="2" customFormat="1"/>
     <row r="111" s="2" customFormat="1"/>
+    <row r="112" s="2" customFormat="1"/>
+    <row r="113" s="2" customFormat="1"/>
+    <row r="114" s="2" customFormat="1"/>
+    <row r="115" s="2" customFormat="1"/>
+    <row r="116" s="2" customFormat="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1088,10 +1133,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1099,371 +1144,371 @@
       <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>13</v>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="12" t="b">
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12" t="b">
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="F19" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1">
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1">
+      <c r="B23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="12" t="b">
+      <c r="E23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1">
+      <c r="B26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1">
+      <c r="B27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1">
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="B22" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="B24" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="B26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>40</v>
+      <c r="F27" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
-      <c r="B32" s="8" t="s">
-        <v>43</v>
+      <c r="B32" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
-      <c r="B34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>20</v>
+      <c r="B34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="12" t="b">
+      <c r="B35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>47</v>
+      <c r="D35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
-      <c r="B36" s="14"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
-      <c r="B38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>20</v>
+      <c r="B38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="12" t="b">
+      <c r="B39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>50</v>
+      <c r="D39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
-      <c r="B40" s="14"/>
+      <c r="B40" s="13"/>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
-      <c r="B42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>20</v>
+      <c r="B42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1">
-      <c r="B43" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="12" t="b">
+      <c r="B43" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>54</v>
+      <c r="D43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
-      <c r="B44" s="14"/>
+      <c r="B44" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1494,10 +1539,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1505,206 +1550,206 @@
       <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>56</v>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="12" t="b">
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="12" t="b">
+      <c r="E11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="B15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="12" t="b">
+      <c r="E15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="18" spans="2:6" ht="24" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="24" customHeight="1">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="22" spans="2:6" ht="24" customHeight="1">
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="24" customHeight="1">
+      <c r="B23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="18" spans="2:6" ht="24" customHeight="1">
-      <c r="B18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="24" customHeight="1">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="22" spans="2:6" ht="24" customHeight="1">
-      <c r="B22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>75</v>
+      <c r="E23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1740,10 +1785,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1751,132 +1796,132 @@
       <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>77</v>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="12" t="b">
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>85</v>
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>20</v>
+      <c r="B14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="12" t="b">
+      <c r="B15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>88</v>
+      <c r="D15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1904,10 +1949,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1915,568 +1960,568 @@
       <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>90</v>
+      <c r="B4" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="12" t="b">
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="12" t="b">
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="B15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="12" t="b">
+      <c r="E15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1">
-      <c r="B18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="12" t="b">
+      <c r="E19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1">
+      <c r="B24" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1">
+      <c r="B26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1">
+      <c r="B27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="B24" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="B26" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="12" t="b">
+      <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1">
+      <c r="B32" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="24" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1">
+      <c r="B35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="24" customHeight="1">
+      <c r="B38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1">
+      <c r="B39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1">
+      <c r="B44" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24" customHeight="1">
+      <c r="B46" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1">
+      <c r="B47" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="24" customHeight="1">
+      <c r="B50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1">
+      <c r="B51" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="24" customHeight="1">
+      <c r="B58" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1">
+      <c r="B59" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1">
-      <c r="B28" s="14"/>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1">
-      <c r="B32" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1">
-      <c r="B34" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1">
-      <c r="B36" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1">
-      <c r="B38" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="E59" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="62" spans="1:6" ht="24" customHeight="1">
+      <c r="B62" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24" customHeight="1">
+      <c r="B63" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24" customHeight="1">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="66" spans="2:6" ht="24" customHeight="1">
+      <c r="B66" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="24" customHeight="1">
+      <c r="B67" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1">
-      <c r="B40" s="14"/>
-    </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" ht="24" customHeight="1">
-      <c r="B44" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="24" customHeight="1">
-      <c r="B46" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="E67" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="24" customHeight="1">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="70" spans="2:6" ht="24" customHeight="1">
+      <c r="B70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="24" customHeight="1">
+      <c r="B71" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1">
-      <c r="B47" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1">
-      <c r="B48" s="14"/>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1">
-      <c r="B50" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1">
-      <c r="B51" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1">
-      <c r="B52" s="14"/>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1">
-      <c r="B58" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="B59" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="14"/>
-    </row>
-    <row r="62" spans="1:6" ht="24" customHeight="1">
-      <c r="B62" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1">
-      <c r="B63" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1">
-      <c r="B64" s="14"/>
-    </row>
-    <row r="66" spans="2:6" ht="24" customHeight="1">
-      <c r="B66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="24" customHeight="1">
-      <c r="B67" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="24" customHeight="1">
-      <c r="B68" s="14"/>
-    </row>
-    <row r="70" spans="2:6" ht="24" customHeight="1">
-      <c r="B70" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="24" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>143</v>
+      <c r="E71" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
-      <c r="B72" s="14"/>
+      <c r="B72" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="6">
